--- a/Config/Datas/SkillBindingData.xlsx
+++ b/Config/Datas/SkillBindingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goho/Documents/GitHub/goblin/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DB65D-D428-FA48-996A-719402B2538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D0D4B-E6EB-9E4F-AD26-7093DF7B59C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -523,7 +523,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2">
-        <v>100000001</v>
+        <v>10001</v>
       </c>
       <c r="C4" s="2">
         <v>1002</v>
